--- a/Results/IBA Mock/Mock 6.xlsx
+++ b/Results/IBA Mock/Mock 6.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\results giver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VH Website\vh-website\Results\IBA Mock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72927CE-F0D2-464B-B8A7-8BE5E3C4D331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B121A95-F520-4297-9227-50074114E617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1137,7 +1137,7 @@
   <dimension ref="A1:Z31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
-      <selection activeCell="W18" sqref="W18"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1247,7 +1247,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I19" si="2">G2*1 + H2*($Z$6)</f>
+        <f t="shared" ref="I2:I31" si="2">G2*1 + H2*($Z$6)</f>
         <v>9.75</v>
       </c>
       <c r="J2">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q31" si="8">_xlfn.RANK.EQ(P2, $P$2:$P$1000, 0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R2" s="21">
         <v>6.5</v>
@@ -1708,7 +1708,7 @@
       </c>
       <c r="Q8">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R8" s="21">
         <v>6</v>
@@ -2405,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <f t="shared" ref="I20:I31" si="13">G20*1 + H20*(T24)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J20">
@@ -2413,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <f t="shared" ref="M20:M31" si="14">K20*1 + L20*(-0.25)</f>
+        <f t="shared" ref="M20:M31" si="13">K20*1 + L20*(-0.25)</f>
         <v>0</v>
       </c>
       <c r="N20">
@@ -2473,12 +2473,12 @@
         <v>4</v>
       </c>
       <c r="I21">
-        <f t="shared" si="13"/>
-        <v>14</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="J21">
         <f t="shared" si="3"/>
-        <v>56.000000000000007</v>
+        <v>12</v>
       </c>
       <c r="K21">
         <v>7</v>
@@ -2487,7 +2487,7 @@
         <v>2</v>
       </c>
       <c r="M21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>6.5</v>
       </c>
       <c r="N21">
@@ -2496,23 +2496,27 @@
       </c>
       <c r="O21">
         <f t="shared" si="6"/>
-        <v>31.25</v>
+        <v>20.25</v>
       </c>
       <c r="P21">
         <f t="shared" si="7"/>
-        <v>44.642857142857146</v>
+        <v>28.928571428571431</v>
       </c>
       <c r="Q21">
         <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="R21" s="19"/>
-      <c r="S21" s="20"/>
+        <v>4</v>
+      </c>
+      <c r="R21" s="19">
+        <v>6.5</v>
+      </c>
+      <c r="S21" s="20">
+        <v>7</v>
+      </c>
       <c r="T21" s="20"/>
       <c r="U21" s="11"/>
       <c r="V21">
         <f t="shared" si="11"/>
-        <v>31.25</v>
+        <v>33.75</v>
       </c>
       <c r="W21">
         <f t="shared" si="10"/>
@@ -2535,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J22">
@@ -2543,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N22">
@@ -2603,12 +2607,12 @@
         <v>3</v>
       </c>
       <c r="I23">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1.25</v>
       </c>
       <c r="J23">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K23">
         <v>5</v>
@@ -2617,7 +2621,7 @@
         <v>4</v>
       </c>
       <c r="M23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="N23">
@@ -2626,15 +2630,15 @@
       </c>
       <c r="O23">
         <f t="shared" si="6"/>
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="P23">
         <f t="shared" si="7"/>
-        <v>12.5</v>
+        <v>11.428571428571429</v>
       </c>
       <c r="Q23">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R23" s="21">
         <v>7.5</v>
@@ -2648,7 +2652,7 @@
       <c r="U23" s="11"/>
       <c r="V23">
         <f t="shared" si="11"/>
-        <v>18.75</v>
+        <v>18</v>
       </c>
       <c r="W23">
         <f t="shared" si="10"/>
@@ -2683,12 +2687,12 @@
         <v>2</v>
       </c>
       <c r="I24">
-        <f t="shared" si="13"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>11.5</v>
       </c>
       <c r="J24">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K24">
         <v>11</v>
@@ -2697,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>10.75</v>
       </c>
       <c r="N24">
@@ -2706,11 +2710,11 @@
       </c>
       <c r="O24">
         <f t="shared" si="6"/>
-        <v>38</v>
+        <v>37.5</v>
       </c>
       <c r="P24">
         <f t="shared" si="7"/>
-        <v>54.285714285714285</v>
+        <v>53.571428571428569</v>
       </c>
       <c r="Q24">
         <f t="shared" si="8"/>
@@ -2728,7 +2732,7 @@
       <c r="U24" s="11"/>
       <c r="V24">
         <f t="shared" si="11"/>
-        <v>52.5</v>
+        <v>52</v>
       </c>
       <c r="W24">
         <f t="shared" si="10"/>
@@ -2763,12 +2767,12 @@
         <v>2</v>
       </c>
       <c r="I25">
-        <f t="shared" si="13"/>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>8.5</v>
       </c>
       <c r="J25">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K25">
         <v>7</v>
@@ -2777,7 +2781,7 @@
         <v>2</v>
       </c>
       <c r="M25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>6.5</v>
       </c>
       <c r="N25">
@@ -2786,15 +2790,15 @@
       </c>
       <c r="O25">
         <f t="shared" si="6"/>
-        <v>30.75</v>
+        <v>30.25</v>
       </c>
       <c r="P25">
         <f t="shared" si="7"/>
-        <v>43.928571428571431</v>
+        <v>43.214285714285715</v>
       </c>
       <c r="Q25">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R25" s="21">
         <v>5</v>
@@ -2808,7 +2812,7 @@
       <c r="U25" s="11"/>
       <c r="V25">
         <f t="shared" si="11"/>
-        <v>44.25</v>
+        <v>43.75</v>
       </c>
       <c r="W25">
         <f t="shared" si="10"/>
@@ -2825,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J26">
@@ -2833,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N26">
@@ -2875,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J27">
@@ -2883,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N27">
@@ -2925,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J28">
@@ -2933,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N28">
@@ -2975,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J29">
@@ -2983,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N29">
@@ -3025,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J30">
@@ -3033,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N30">
@@ -3075,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J31">
@@ -3083,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N31">
